--- a/Code/Results/Cases/Case_1_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_117/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2688286694212536</v>
+        <v>0.1423793782173277</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04909532925073279</v>
+        <v>0.02389231384312041</v>
       </c>
       <c r="E2">
-        <v>0.2619899877234317</v>
+        <v>0.1502547449891267</v>
       </c>
       <c r="F2">
-        <v>0.5213278917138098</v>
+        <v>0.6662018445176656</v>
       </c>
       <c r="G2">
-        <v>0.0007918441708350029</v>
+        <v>0.002416400815748054</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.886374579294937</v>
+        <v>0.5758289050956193</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7763179534982498</v>
+        <v>0.2662015917416625</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.487572293583469</v>
+        <v>2.254197210472284</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2349900038165202</v>
+        <v>0.1329601202308339</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04448963545703322</v>
+        <v>0.02227087676546802</v>
       </c>
       <c r="E3">
-        <v>0.2297156081621452</v>
+        <v>0.1429652403097634</v>
       </c>
       <c r="F3">
-        <v>0.4850251851534182</v>
+        <v>0.6630842609392005</v>
       </c>
       <c r="G3">
-        <v>0.0007960955786961716</v>
+        <v>0.002419150599846586</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.659998203334709</v>
+        <v>0.50333163287209</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.672114089261342</v>
+        <v>0.2361896613441345</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.416717415584202</v>
+        <v>2.258141254488436</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2143851732012365</v>
+        <v>0.1272476187593412</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04165462820096621</v>
+        <v>0.02126820484708247</v>
       </c>
       <c r="E4">
-        <v>0.210449283635576</v>
+        <v>0.1386229064383073</v>
       </c>
       <c r="F4">
-        <v>0.4639605068286841</v>
+        <v>0.6616748310768727</v>
       </c>
       <c r="G4">
-        <v>0.0007987882420353436</v>
+        <v>0.002420928902116901</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.521039583181732</v>
+        <v>0.4586284242983254</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6085832945655696</v>
+        <v>0.2178025018083716</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.377232368394317</v>
+        <v>2.26224590360809</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2060275449181717</v>
+        <v>0.1249377078308243</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04049731097221354</v>
+        <v>0.02085784934577362</v>
       </c>
       <c r="E5">
-        <v>0.2027227298748215</v>
+        <v>0.1368866495342189</v>
       </c>
       <c r="F5">
-        <v>0.4556648942990122</v>
+        <v>0.6612272059808149</v>
       </c>
       <c r="G5">
-        <v>0.0007999066798489894</v>
+        <v>0.002421676255543083</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.46440069720208</v>
+        <v>0.4403647610978112</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.582787955350426</v>
+        <v>0.2103197066472049</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.362092119899387</v>
+        <v>2.264341020683503</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2046420014367527</v>
+        <v>0.1245552388290747</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04030501004032061</v>
+        <v>0.0207896047312417</v>
       </c>
       <c r="E6">
-        <v>0.2014468832868417</v>
+        <v>0.1366003472668922</v>
       </c>
       <c r="F6">
-        <v>0.4543042777593911</v>
+        <v>0.6611605263835187</v>
       </c>
       <c r="G6">
-        <v>0.0008000936864895766</v>
+        <v>0.002421801724988226</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.454994520723233</v>
+        <v>0.4373292982072883</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5785097913600126</v>
+        <v>0.2090778053685156</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.359633774011598</v>
+        <v>2.264714405234656</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2142723068928944</v>
+        <v>0.1272163935121711</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04163902873933267</v>
+        <v>0.02126267773291346</v>
       </c>
       <c r="E7">
-        <v>0.2103445935480366</v>
+        <v>0.1385993562905696</v>
       </c>
       <c r="F7">
-        <v>0.4638474867820008</v>
+        <v>0.6616682813970627</v>
       </c>
       <c r="G7">
-        <v>0.0007988032393876354</v>
+        <v>0.00242093888931616</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.520275807798583</v>
+        <v>0.4583823021661999</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6082350538298726</v>
+        <v>0.2177015452420292</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.377024412013355</v>
+        <v>2.262272449668501</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2571226772967208</v>
+        <v>0.1391169684576568</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04750860245073341</v>
+        <v>0.02333473255384177</v>
       </c>
       <c r="E8">
-        <v>0.2507390215245593</v>
+        <v>0.1477134560887308</v>
       </c>
       <c r="F8">
-        <v>0.5085441947486018</v>
+        <v>0.6650220105165943</v>
       </c>
       <c r="G8">
-        <v>0.0007932932664507634</v>
+        <v>0.002417330319372875</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.808298757400735</v>
+        <v>0.5508717295973611</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7402828179976382</v>
+        <v>0.2558451012835974</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.462269562439104</v>
+        <v>2.255207347972913</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3427282431768504</v>
+        <v>0.1630123411814282</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05897527630395416</v>
+        <v>0.02734064688796423</v>
       </c>
       <c r="E9">
-        <v>0.3349878065074989</v>
+        <v>0.16665863846017</v>
       </c>
       <c r="F9">
-        <v>0.6068657877690953</v>
+        <v>0.675614377461315</v>
       </c>
       <c r="G9">
-        <v>0.0007831186939440115</v>
+        <v>0.002410964273914238</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.374482845219262</v>
+        <v>0.7307068231437199</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.003755651073348</v>
+        <v>0.3309685262020494</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.664254323434704</v>
+        <v>2.254743804378933</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4068979603813858</v>
+        <v>0.1809043505654273</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06739356450582079</v>
+        <v>0.0302477225467328</v>
       </c>
       <c r="E10">
-        <v>0.4009673596928351</v>
+        <v>0.1812517653451451</v>
       </c>
       <c r="F10">
-        <v>0.6870254464582217</v>
+        <v>0.6858612823085366</v>
       </c>
       <c r="G10">
-        <v>0.0007759943847293882</v>
+        <v>0.002406715765597791</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.792952779195872</v>
+        <v>0.861864951420273</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.201534342576224</v>
+        <v>0.3863710062659322</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.838242591131319</v>
+        <v>2.262622730070404</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4364423928705037</v>
+        <v>0.1891160667378955</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07122696375959237</v>
+        <v>0.03156218389636223</v>
       </c>
       <c r="E11">
-        <v>0.4321181473761655</v>
+        <v>0.1880413917265429</v>
       </c>
       <c r="F11">
-        <v>0.7255546589027517</v>
+        <v>0.6910617336283309</v>
       </c>
       <c r="G11">
-        <v>0.0007728215723277417</v>
+        <v>0.002404875139551408</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.984274477802387</v>
+        <v>0.9213168216000724</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.292776102543115</v>
+        <v>0.41162337763312</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.924006809137666</v>
+        <v>2.268004122211238</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4476875043856552</v>
+        <v>0.1922359518293462</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07267958027821209</v>
+        <v>0.03205876496600268</v>
       </c>
       <c r="E12">
-        <v>0.4441004142826372</v>
+        <v>0.1906345085663332</v>
       </c>
       <c r="F12">
-        <v>0.7404725134131809</v>
+        <v>0.693108783477399</v>
       </c>
       <c r="G12">
-        <v>0.0007716291889309001</v>
+        <v>0.002404191306287341</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.056897227471921</v>
+        <v>0.9437983902450355</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.32754196614556</v>
+        <v>0.4211930230845411</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.957530964597538</v>
+        <v>2.270301268000111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4452630130065813</v>
+        <v>0.1915635735948626</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07236668186140349</v>
+        <v>0.03195187015192857</v>
       </c>
       <c r="E13">
-        <v>0.441511154921109</v>
+        <v>0.190075049781619</v>
       </c>
       <c r="F13">
-        <v>0.7372445942535393</v>
+        <v>0.6926644529478381</v>
       </c>
       <c r="G13">
-        <v>0.0007718855973546921</v>
+        <v>0.002404337997277871</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.041248305478717</v>
+        <v>0.938958001676184</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.320044433933631</v>
+        <v>0.4191317119806968</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.950262756423655</v>
+        <v>2.269794988662198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4373663483356012</v>
+        <v>0.1893725362458127</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0713464488884199</v>
+        <v>0.03160306167278293</v>
       </c>
       <c r="E14">
-        <v>0.4331000672563121</v>
+        <v>0.1882542857270835</v>
       </c>
       <c r="F14">
-        <v>0.7267752067835431</v>
+        <v>0.6912285860636018</v>
       </c>
       <c r="G14">
-        <v>0.0007727232962066827</v>
+        <v>0.002404818616292727</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.990245504632213</v>
+        <v>0.9231670320128842</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.295631817885692</v>
+        <v>0.4124105354020458</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.926743298846674</v>
+        <v>2.268187907342082</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4325370722457365</v>
+        <v>0.1880317978519912</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07072166944688973</v>
+        <v>0.03138925227855793</v>
       </c>
       <c r="E15">
-        <v>0.427972985478462</v>
+        <v>0.1871418933594526</v>
       </c>
       <c r="F15">
-        <v>0.7204060371516476</v>
+        <v>0.6903592085892285</v>
       </c>
       <c r="G15">
-        <v>0.0007732375733111594</v>
+        <v>0.002405114723122441</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.959028508407016</v>
+        <v>0.9134904673277617</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.280707324588917</v>
+        <v>0.4082945480572988</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.912476294884328</v>
+        <v>2.267237322340691</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4049748143753646</v>
+        <v>0.1803691430054641</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06714315700502027</v>
+        <v>0.03016165629312439</v>
       </c>
       <c r="E16">
-        <v>0.3989563439710082</v>
+        <v>0.180811114155297</v>
       </c>
       <c r="F16">
-        <v>0.6845515885106863</v>
+        <v>0.6855322882013866</v>
       </c>
       <c r="G16">
-        <v>0.0007762030469050663</v>
+        <v>0.002406837901458167</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.78047170301997</v>
+        <v>0.8579752685860456</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.195599711519989</v>
+        <v>0.384721700677062</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.832778832189348</v>
+        <v>2.262307284422093</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3881612129794121</v>
+        <v>0.1756868304345858</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06494914423923603</v>
+        <v>0.02940650074300066</v>
       </c>
       <c r="E17">
-        <v>0.3814621389341966</v>
+        <v>0.1769663092248877</v>
       </c>
       <c r="F17">
-        <v>0.6631059008294642</v>
+        <v>0.6827093666854864</v>
       </c>
       <c r="G17">
-        <v>0.0007780392245331873</v>
+        <v>0.002407918544553439</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.671202546908802</v>
+        <v>0.8238633277364613</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.143736266317347</v>
+        <v>0.3702732023530402</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.785647192618512</v>
+        <v>2.259743813440593</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3785233150777287</v>
+        <v>0.1730005257178107</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06368754270256005</v>
+        <v>0.02897140566764733</v>
       </c>
       <c r="E18">
-        <v>0.3715054130401541</v>
+        <v>0.1747690872077499</v>
       </c>
       <c r="F18">
-        <v>0.6509632086990678</v>
+        <v>0.6811364241178808</v>
       </c>
       <c r="G18">
-        <v>0.0007791017973409678</v>
+        <v>0.002408548768912544</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.608441636377449</v>
+        <v>0.8042230873016933</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.114023372884347</v>
+        <v>0.3619674677177542</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.759154873430646</v>
+        <v>2.25843848339494</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3752655391709681</v>
+        <v>0.1720921679274028</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06326043136951398</v>
+        <v>0.02882396210285521</v>
       </c>
       <c r="E19">
-        <v>0.3681516942181915</v>
+        <v>0.1740275767377994</v>
       </c>
       <c r="F19">
-        <v>0.6468840300823047</v>
+        <v>0.6806125581430393</v>
       </c>
       <c r="G19">
-        <v>0.0007794626947215335</v>
+        <v>0.002408763642795613</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.587205917772025</v>
+        <v>0.7975698425095743</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.103982371454329</v>
+        <v>0.3591560889287635</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.750288134636122</v>
+        <v>2.25802553884202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3899476052271353</v>
+        <v>0.1761845639924502</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06518266280027518</v>
+        <v>0.02948696613027124</v>
       </c>
       <c r="E20">
-        <v>0.383313352407896</v>
+        <v>0.1773741226271568</v>
       </c>
       <c r="F20">
-        <v>0.6653687130710324</v>
+        <v>0.6830046197337367</v>
       </c>
       <c r="G20">
-        <v>0.0007778430973733831</v>
+        <v>0.002407802611791232</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.682825097998688</v>
+        <v>0.8274966744705523</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.149244827508539</v>
+        <v>0.371810787426611</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.790599957081213</v>
+        <v>2.259999190521313</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4396841818199704</v>
+        <v>0.1900158190241967</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07164608546729312</v>
+        <v>0.03170554735014264</v>
       </c>
       <c r="E21">
-        <v>0.4355653639035992</v>
+        <v>0.1887884879195951</v>
       </c>
       <c r="F21">
-        <v>0.7298411679910402</v>
+        <v>0.6916482229667622</v>
       </c>
       <c r="G21">
-        <v>0.0007724770027671037</v>
+        <v>0.002404677089947412</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.005221257926962</v>
+        <v>0.9278060870670686</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.302796303242161</v>
+        <v>0.4143845146161311</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.93362231236128</v>
+        <v>2.268652900876305</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4725271039825145</v>
+        <v>0.1991152327622956</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07587631719085408</v>
+        <v>0.03314864513956195</v>
       </c>
       <c r="E22">
-        <v>0.4708121890996253</v>
+        <v>0.1963769980056966</v>
       </c>
       <c r="F22">
-        <v>0.7739038088150494</v>
+        <v>0.6977506212373896</v>
       </c>
       <c r="G22">
-        <v>0.0007690225803660154</v>
+        <v>0.002402711129361809</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.216955272130292</v>
+        <v>0.9931796535780109</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.404418771981625</v>
+        <v>0.4422504121982911</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.033249435209598</v>
+        <v>2.275820582232143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4549651034067637</v>
+        <v>0.1942532729301547</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07361785822473621</v>
+        <v>0.03237907514817806</v>
       </c>
       <c r="E23">
-        <v>0.4518918219075516</v>
+        <v>0.1923150049326168</v>
       </c>
       <c r="F23">
-        <v>0.7501996298134088</v>
+        <v>0.694452102671292</v>
       </c>
       <c r="G23">
-        <v>0.0007708616996151351</v>
+        <v>0.00240375339783859</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.103842004275378</v>
+        <v>0.9583057509250068</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.350053672312853</v>
+        <v>0.4273740593485229</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.979479715098961</v>
+        <v>2.271856415977481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3891398891118456</v>
+        <v>0.1759595211373863</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0650770898211448</v>
+        <v>0.0294505906738749</v>
       </c>
       <c r="E24">
-        <v>0.3824761061277329</v>
+        <v>0.1771897090728913</v>
       </c>
       <c r="F24">
-        <v>0.6643451163691481</v>
+        <v>0.6828709801224591</v>
       </c>
       <c r="G24">
-        <v>0.0007779317448413333</v>
+        <v>0.002407854997085129</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.677570360343736</v>
+        <v>0.8258541281480234</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.146754085137601</v>
+        <v>0.3711156424185091</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.788358937184512</v>
+        <v>2.259883209908452</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3193696856772448</v>
+        <v>0.1564886785348989</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05587591943292836</v>
+        <v>0.02626319745264283</v>
       </c>
       <c r="E25">
-        <v>0.311557810828063</v>
+        <v>0.1614165539286176</v>
       </c>
       <c r="F25">
-        <v>0.5789846614197174</v>
+        <v>0.6723172307177521</v>
       </c>
       <c r="G25">
-        <v>0.0007858070053489485</v>
+        <v>0.002412610869080404</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.221005231798756</v>
+        <v>0.6822242962934411</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9318524723971748</v>
+        <v>0.310609752000282</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.605453603596914</v>
+        <v>2.253429807653561</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_117/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423793782173277</v>
+        <v>0.2688286694212678</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02389231384312041</v>
+        <v>0.04909532925073989</v>
       </c>
       <c r="E2">
-        <v>0.1502547449891267</v>
+        <v>0.2619899877234317</v>
       </c>
       <c r="F2">
-        <v>0.6662018445176656</v>
+        <v>0.5213278917138027</v>
       </c>
       <c r="G2">
-        <v>0.002416400815748054</v>
+        <v>0.0007918441709514602</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5758289050956193</v>
+        <v>1.886374579294738</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2662015917416625</v>
+        <v>0.7763179534982356</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.254197210472284</v>
+        <v>1.487572293583355</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329601202308339</v>
+        <v>0.234990003816506</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02227087676546802</v>
+        <v>0.04448963545703322</v>
       </c>
       <c r="E3">
-        <v>0.1429652403097634</v>
+        <v>0.2297156081621594</v>
       </c>
       <c r="F3">
-        <v>0.6630842609392005</v>
+        <v>0.4850251851534253</v>
       </c>
       <c r="G3">
-        <v>0.002419150599846586</v>
+        <v>0.0007960955786957321</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.50333163287209</v>
+        <v>1.659998203334879</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2361896613441345</v>
+        <v>0.6721140892613349</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.258141254488436</v>
+        <v>1.41671741558423</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272476187593412</v>
+        <v>0.2143851732012081</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02126820484708247</v>
+        <v>0.04165462820090937</v>
       </c>
       <c r="E4">
-        <v>0.1386229064383073</v>
+        <v>0.210449283635576</v>
       </c>
       <c r="F4">
-        <v>0.6616748310768727</v>
+        <v>0.463960506828677</v>
       </c>
       <c r="G4">
-        <v>0.002420928902116901</v>
+        <v>0.0007987882420140702</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4586284242983254</v>
+        <v>1.521039583181818</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2178025018083716</v>
+        <v>0.6085832945655625</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.26224590360809</v>
+        <v>1.377232368394431</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1249377078308243</v>
+        <v>0.2060275449181574</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02085784934577362</v>
+        <v>0.04049731097220644</v>
       </c>
       <c r="E5">
-        <v>0.1368866495342189</v>
+        <v>0.202722729874786</v>
       </c>
       <c r="F5">
-        <v>0.6612272059808149</v>
+        <v>0.4556648942989838</v>
       </c>
       <c r="G5">
-        <v>0.002421676255543083</v>
+        <v>0.0007999066797710772</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4403647610978112</v>
+        <v>1.464400697202052</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2103197066472049</v>
+        <v>0.5827879553504047</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.264341020683503</v>
+        <v>1.362092119899359</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245552388290747</v>
+        <v>0.2046420014367669</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0207896047312417</v>
+        <v>0.04030501004032061</v>
       </c>
       <c r="E6">
-        <v>0.1366003472668922</v>
+        <v>0.2014468832868417</v>
       </c>
       <c r="F6">
-        <v>0.6611605263835187</v>
+        <v>0.4543042777593911</v>
       </c>
       <c r="G6">
-        <v>0.002421801724988226</v>
+        <v>0.0008000936863948937</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4373292982072883</v>
+        <v>1.454994520723233</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2090778053685156</v>
+        <v>0.5785097913599984</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.264714405234656</v>
+        <v>1.35963377401157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1272163935121711</v>
+        <v>0.2142723068928802</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02126267773291346</v>
+        <v>0.0416390287389703</v>
       </c>
       <c r="E7">
-        <v>0.1385993562905696</v>
+        <v>0.2103445935480366</v>
       </c>
       <c r="F7">
-        <v>0.6616682813970627</v>
+        <v>0.463847486782015</v>
       </c>
       <c r="G7">
-        <v>0.00242093888931616</v>
+        <v>0.0007988032393878617</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4583823021661999</v>
+        <v>1.520275807798583</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2177015452420292</v>
+        <v>0.6082350538298869</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.262272449668501</v>
+        <v>1.377024412013498</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391169684576568</v>
+        <v>0.257122677296735</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02333473255384177</v>
+        <v>0.04750860245056998</v>
       </c>
       <c r="E8">
-        <v>0.1477134560887308</v>
+        <v>0.2507390215245522</v>
       </c>
       <c r="F8">
-        <v>0.6650220105165943</v>
+        <v>0.5085441947486018</v>
       </c>
       <c r="G8">
-        <v>0.002417330319372875</v>
+        <v>0.0007932932665664629</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5508717295973611</v>
+        <v>1.808298757400706</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2558451012835974</v>
+        <v>0.7402828179976382</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.255207347972913</v>
+        <v>1.462269562439047</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1630123411814282</v>
+        <v>0.3427282431768077</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02734064688796423</v>
+        <v>0.05897527630396127</v>
       </c>
       <c r="E9">
-        <v>0.16665863846017</v>
+        <v>0.3349878065075131</v>
       </c>
       <c r="F9">
-        <v>0.675614377461315</v>
+        <v>0.6068657877690811</v>
       </c>
       <c r="G9">
-        <v>0.002410964273914238</v>
+        <v>0.0007831186939427431</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7307068231437199</v>
+        <v>2.374482845219205</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3309685262020494</v>
+        <v>1.003755651073334</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.254743804378933</v>
+        <v>1.664254323434704</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1809043505654273</v>
+        <v>0.4068979603813716</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0302477225467328</v>
+        <v>0.0673935645057071</v>
       </c>
       <c r="E10">
-        <v>0.1812517653451451</v>
+        <v>0.4009673596928707</v>
       </c>
       <c r="F10">
-        <v>0.6858612823085366</v>
+        <v>0.6870254464582359</v>
       </c>
       <c r="G10">
-        <v>0.002406715765597791</v>
+        <v>0.0007759943847025086</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.861864951420273</v>
+        <v>2.792952779195957</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3863710062659322</v>
+        <v>1.201534342576224</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.262622730070404</v>
+        <v>1.838242591131404</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1891160667378955</v>
+        <v>0.4364423928705179</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03156218389636223</v>
+        <v>0.07122696375970605</v>
       </c>
       <c r="E11">
-        <v>0.1880413917265429</v>
+        <v>0.4321181473761442</v>
       </c>
       <c r="F11">
-        <v>0.6910617336283309</v>
+        <v>0.7255546589027517</v>
       </c>
       <c r="G11">
-        <v>0.002404875139551408</v>
+        <v>0.0007728215722716882</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9213168216000724</v>
+        <v>2.984274477802444</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.41162337763312</v>
+        <v>1.292776102543129</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.268004122211238</v>
+        <v>1.924006809137666</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1922359518293462</v>
+        <v>0.4476875043857262</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03205876496600268</v>
+        <v>0.07267958027826893</v>
       </c>
       <c r="E12">
-        <v>0.1906345085663332</v>
+        <v>0.4441004142826301</v>
       </c>
       <c r="F12">
-        <v>0.693108783477399</v>
+        <v>0.7404725134131809</v>
       </c>
       <c r="G12">
-        <v>0.002404191306287341</v>
+        <v>0.0007716291889303991</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9437983902450355</v>
+        <v>3.056897227471921</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4211930230845411</v>
+        <v>1.327541966145546</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.270301268000111</v>
+        <v>1.957530964597538</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1915635735948626</v>
+        <v>0.4452630130067945</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03195187015192857</v>
+        <v>0.07236668186153139</v>
       </c>
       <c r="E13">
-        <v>0.190075049781619</v>
+        <v>0.4415111549211233</v>
       </c>
       <c r="F13">
-        <v>0.6926644529478381</v>
+        <v>0.7372445942535251</v>
       </c>
       <c r="G13">
-        <v>0.002404337997277871</v>
+        <v>0.0007718855973018501</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.938958001676184</v>
+        <v>3.041248305478604</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4191317119806968</v>
+        <v>1.320044433933674</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.269794988662198</v>
+        <v>1.950262756423569</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1893725362458127</v>
+        <v>0.4373663483357717</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03160306167278293</v>
+        <v>0.07134644888847674</v>
       </c>
       <c r="E14">
-        <v>0.1882542857270835</v>
+        <v>0.4331000672563121</v>
       </c>
       <c r="F14">
-        <v>0.6912285860636018</v>
+        <v>0.7267752067835431</v>
       </c>
       <c r="G14">
-        <v>0.002404818616292727</v>
+        <v>0.0007727232962076819</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9231670320128842</v>
+        <v>2.990245504632128</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4124105354020458</v>
+        <v>1.295631817885692</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.268187907342082</v>
+        <v>1.926743298846588</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1880317978519912</v>
+        <v>0.4325370722457507</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03138925227855793</v>
+        <v>0.0707216694467192</v>
       </c>
       <c r="E15">
-        <v>0.1871418933594526</v>
+        <v>0.427972985478462</v>
       </c>
       <c r="F15">
-        <v>0.6903592085892285</v>
+        <v>0.7204060371516476</v>
       </c>
       <c r="G15">
-        <v>0.002405114723122441</v>
+        <v>0.0007732375733118229</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9134904673277617</v>
+        <v>2.959028508407187</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4082945480572988</v>
+        <v>1.280707324588946</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.267237322340691</v>
+        <v>1.912476294884328</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1803691430054641</v>
+        <v>0.4049748143753362</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03016165629312439</v>
+        <v>0.06714315700489948</v>
       </c>
       <c r="E16">
-        <v>0.180811114155297</v>
+        <v>0.3989563439710011</v>
       </c>
       <c r="F16">
-        <v>0.6855322882013866</v>
+        <v>0.6845515885106863</v>
       </c>
       <c r="G16">
-        <v>0.002406837901458167</v>
+        <v>0.0007762030469050429</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8579752685860456</v>
+        <v>2.780471703019856</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.384721700677062</v>
+        <v>1.195599711519975</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.262307284422093</v>
+        <v>1.832778832189234</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1756868304345858</v>
+        <v>0.38816121297927</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02940650074300066</v>
+        <v>0.06494914423923603</v>
       </c>
       <c r="E17">
-        <v>0.1769663092248877</v>
+        <v>0.3814621389341895</v>
       </c>
       <c r="F17">
-        <v>0.6827093666854864</v>
+        <v>0.6631059008294642</v>
       </c>
       <c r="G17">
-        <v>0.002407918544553439</v>
+        <v>0.0007780392245333784</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8238633277364613</v>
+        <v>2.671202546909058</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3702732023530402</v>
+        <v>1.143736266317362</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.259743813440593</v>
+        <v>1.785647192618654</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1730005257178107</v>
+        <v>0.3785233150777145</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02897140566764733</v>
+        <v>0.06368754270256716</v>
       </c>
       <c r="E18">
-        <v>0.1747690872077499</v>
+        <v>0.3715054130401327</v>
       </c>
       <c r="F18">
-        <v>0.6811364241178808</v>
+        <v>0.6509632086990678</v>
       </c>
       <c r="G18">
-        <v>0.002408548768912544</v>
+        <v>0.0007791017973416191</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8042230873016933</v>
+        <v>2.608441636377421</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3619674677177542</v>
+        <v>1.114023372884354</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.25843848339494</v>
+        <v>1.75915487343056</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1720921679274028</v>
+        <v>0.3752655391709823</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02882396210285521</v>
+        <v>0.06326043136962767</v>
       </c>
       <c r="E19">
-        <v>0.1740275767377994</v>
+        <v>0.3681516942181773</v>
       </c>
       <c r="F19">
-        <v>0.6806125581430393</v>
+        <v>0.6468840300823189</v>
       </c>
       <c r="G19">
-        <v>0.002408763642795613</v>
+        <v>0.000779462694776812</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7975698425095743</v>
+        <v>2.587205917771996</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3591560889287635</v>
+        <v>1.103982371454336</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.25802553884202</v>
+        <v>1.750288134636008</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1761845639924502</v>
+        <v>0.3899476052270074</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02948696613027124</v>
+        <v>0.06518266280038887</v>
       </c>
       <c r="E20">
-        <v>0.1773741226271568</v>
+        <v>0.383313352407896</v>
       </c>
       <c r="F20">
-        <v>0.6830046197337367</v>
+        <v>0.6653687130710324</v>
       </c>
       <c r="G20">
-        <v>0.002407802611791232</v>
+        <v>0.0007778430974539089</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8274966744705523</v>
+        <v>2.682825097998801</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.371810787426611</v>
+        <v>1.149244827508561</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.259999190521313</v>
+        <v>1.790599957081241</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1900158190241967</v>
+        <v>0.4396841818201125</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03170554735014264</v>
+        <v>0.07164608546735707</v>
       </c>
       <c r="E21">
-        <v>0.1887884879195951</v>
+        <v>0.435565363903585</v>
       </c>
       <c r="F21">
-        <v>0.6916482229667622</v>
+        <v>0.7298411679910259</v>
       </c>
       <c r="G21">
-        <v>0.002404677089947412</v>
+        <v>0.0007724770027964198</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9278060870670686</v>
+        <v>3.005221257926905</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4143845146161311</v>
+        <v>1.302796303242161</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.268652900876305</v>
+        <v>1.933622312361251</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1991152327622956</v>
+        <v>0.4725271039823866</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03314864513956195</v>
+        <v>0.07587631719097487</v>
       </c>
       <c r="E22">
-        <v>0.1963769980056966</v>
+        <v>0.4708121890996537</v>
       </c>
       <c r="F22">
-        <v>0.6977506212373896</v>
+        <v>0.7739038088150494</v>
       </c>
       <c r="G22">
-        <v>0.002402711129361809</v>
+        <v>0.0007690225803939117</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9931796535780109</v>
+        <v>3.216955272130292</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4422504121982911</v>
+        <v>1.404418771981597</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.275820582232143</v>
+        <v>2.033249435209598</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1942532729301547</v>
+        <v>0.4549651034070195</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03237907514817806</v>
+        <v>0.0736178582248499</v>
       </c>
       <c r="E23">
-        <v>0.1923150049326168</v>
+        <v>0.4518918219075445</v>
       </c>
       <c r="F23">
-        <v>0.694452102671292</v>
+        <v>0.750199629813423</v>
       </c>
       <c r="G23">
-        <v>0.00240375339783859</v>
+        <v>0.000770861699643612</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9583057509250068</v>
+        <v>3.103842004275464</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4273740593485229</v>
+        <v>1.350053672312853</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.271856415977481</v>
+        <v>1.979479715098989</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1759595211373863</v>
+        <v>0.3891398891117603</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0294505906738749</v>
+        <v>0.0650770898210169</v>
       </c>
       <c r="E24">
-        <v>0.1771897090728913</v>
+        <v>0.3824761061277542</v>
       </c>
       <c r="F24">
-        <v>0.6828709801224591</v>
+        <v>0.6643451163691623</v>
       </c>
       <c r="G24">
-        <v>0.002407854997085129</v>
+        <v>0.0007779317448400946</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8258541281480234</v>
+        <v>2.67757036034368</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3711156424185091</v>
+        <v>1.146754085137601</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.259883209908452</v>
+        <v>1.788358937184483</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1564886785348989</v>
+        <v>0.3193696856773869</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02626319745264283</v>
+        <v>0.05587591943293546</v>
       </c>
       <c r="E25">
-        <v>0.1614165539286176</v>
+        <v>0.3115578108280772</v>
       </c>
       <c r="F25">
-        <v>0.6723172307177521</v>
+        <v>0.5789846614197316</v>
       </c>
       <c r="G25">
-        <v>0.002412610869080404</v>
+        <v>0.0007858070053740063</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6822242962934411</v>
+        <v>2.221005231798785</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.310609752000282</v>
+        <v>0.9318524723971962</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.253429807653561</v>
+        <v>1.605453603596857</v>
       </c>
     </row>
   </sheetData>
